--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,74 +662,77 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,40 +743,43 @@
         <v>1900</v>
       </c>
       <c r="F8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -787,37 +793,40 @@
         <v>900</v>
       </c>
       <c r="G9" s="3">
+        <v>900</v>
+      </c>
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1000</v>
       </c>
       <c r="K9" s="3">
         <v>1000</v>
       </c>
       <c r="L9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="3">
         <v>900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1000</v>
       </c>
       <c r="N9" s="3">
         <v>1000</v>
       </c>
       <c r="O9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,40 +837,43 @@
         <v>1000</v>
       </c>
       <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>900</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
       </c>
       <c r="J10" s="3">
+        <v>900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,7 +903,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
@@ -902,7 +915,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
@@ -914,16 +927,19 @@
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1029,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,13 +1094,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
         <v>2000</v>
@@ -1087,78 +1113,84 @@
         <v>2000</v>
       </c>
       <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1219,8 +1252,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1228,43 +1264,46 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,52 +1346,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1395,8 +1440,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,96 +1487,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1747,52 +1816,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1910,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,52 +2049,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2300</v>
       </c>
       <c r="L41" s="3">
         <v>2300</v>
       </c>
       <c r="M41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2052,52 +2141,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2140,57 +2235,63 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
         <v>1800</v>
@@ -2199,37 +2300,40 @@
         <v>1800</v>
       </c>
       <c r="G46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2272,8 +2376,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2308,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2316,8 +2423,11 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2360,8 +2470,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,8 +2564,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2492,8 +2611,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,8 +2658,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2551,37 +2676,40 @@
         <v>1800</v>
       </c>
       <c r="G54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,8 +2745,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2625,22 +2755,22 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2649,7 +2779,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -2660,8 +2790,11 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2704,52 +2837,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2757,43 +2896,46 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2836,8 +2978,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2880,8 +3025,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,8 +3166,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -3021,43 +3178,46 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,8 +3420,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
@@ -3259,43 +3432,46 @@
         <v>-142900</v>
       </c>
       <c r="E72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="F72" s="3">
         <v>-142800</v>
       </c>
       <c r="G72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-142400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-141900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-140800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-140400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,8 +3608,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -3441,37 +3626,40 @@
         <v>800</v>
       </c>
       <c r="G76" s="3">
+        <v>800</v>
+      </c>
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1200</v>
       </c>
       <c r="K76" s="3">
         <v>1200</v>
       </c>
       <c r="L76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3702,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,8 +3822,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3669,8 +3867,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4102,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3995,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,8 +4309,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -4127,8 +4356,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4189,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,8 +4563,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -4333,11 +4578,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4365,8 +4610,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4409,48 +4657,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,77 +665,81 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,40 +753,43 @@
         <v>1900</v>
       </c>
       <c r="G8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,37 +806,40 @@
         <v>900</v>
       </c>
       <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1000</v>
       </c>
       <c r="L9" s="3">
         <v>1000</v>
       </c>
       <c r="M9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="3">
         <v>900</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1000</v>
       </c>
       <c r="O9" s="3">
         <v>1000</v>
       </c>
       <c r="P9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,40 +853,43 @@
         <v>1000</v>
       </c>
       <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>900</v>
       </c>
       <c r="J10" s="3">
         <v>900</v>
       </c>
       <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,13 +907,14 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -906,7 +923,7 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
@@ -918,7 +935,7 @@
         <v>400</v>
       </c>
       <c r="K12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
@@ -930,16 +947,19 @@
         <v>500</v>
       </c>
       <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>700</v>
       </c>
       <c r="Q12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1095,16 +1124,17 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2000</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -1116,81 +1146,87 @@
         <v>2000</v>
       </c>
       <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1349,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1443,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1490,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1631,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1678,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1772,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1819,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1913,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2031,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2050,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2300</v>
       </c>
       <c r="M41" s="3">
         <v>2300</v>
       </c>
       <c r="N41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2144,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2238,63 +2337,69 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1800</v>
       </c>
       <c r="F46" s="3">
         <v>1800</v>
@@ -2303,37 +2408,40 @@
         <v>1800</v>
       </c>
       <c r="H46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2379,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2418,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2426,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2473,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2520,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2567,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2614,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2661,13 +2787,16 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
@@ -2679,37 +2808,40 @@
         <v>1800</v>
       </c>
       <c r="H54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2727,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2746,34 +2879,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2782,7 +2916,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -2793,31 +2927,34 @@
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2840,102 +2977,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="E60" s="3">
         <v>1000</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2981,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3028,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3075,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3122,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3169,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3235,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3282,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3329,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3376,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3423,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-142900</v>
+        <v>-143000</v>
       </c>
       <c r="E72" s="3">
         <v>-142900</v>
       </c>
       <c r="F72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="G72" s="3">
         <v>-142800</v>
       </c>
       <c r="H72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-142400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-141200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-140800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3517,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3564,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3611,13 +3797,16 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E76" s="3">
         <v>800</v>
@@ -3629,37 +3818,40 @@
         <v>800</v>
       </c>
       <c r="H76" s="3">
+        <v>800</v>
+      </c>
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1200</v>
       </c>
       <c r="L76" s="3">
         <v>1200</v>
       </c>
       <c r="M76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3705,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3823,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3870,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3917,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3964,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4011,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4058,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4105,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4171,13 +4394,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4218,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4265,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4312,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -4359,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4378,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4425,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4472,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4519,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4566,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4581,11 +4830,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4613,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4660,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
@@ -4669,42 +4924,45 @@
         <v>-400</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E8" s="3">
         <v>1900</v>
@@ -756,45 +760,48 @@
         <v>1900</v>
       </c>
       <c r="H8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="3">
         <v>900</v>
@@ -809,37 +816,40 @@
         <v>900</v>
       </c>
       <c r="I9" s="3">
+        <v>900</v>
+      </c>
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1000</v>
       </c>
       <c r="M9" s="3">
         <v>1000</v>
       </c>
       <c r="N9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O9" s="3">
         <v>900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1000</v>
       </c>
       <c r="P9" s="3">
         <v>1000</v>
       </c>
       <c r="Q9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,40 +866,43 @@
         <v>1000</v>
       </c>
       <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>900</v>
       </c>
       <c r="K10" s="3">
         <v>900</v>
       </c>
       <c r="L10" s="3">
+        <v>900</v>
+      </c>
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,7 +931,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -926,7 +940,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
@@ -938,7 +952,7 @@
         <v>400</v>
       </c>
       <c r="L12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
@@ -950,16 +964,19 @@
         <v>500</v>
       </c>
       <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>600</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>700</v>
       </c>
       <c r="R12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,10 +1161,10 @@
         <v>2000</v>
       </c>
       <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2000</v>
       </c>
       <c r="G17" s="3">
         <v>2000</v>
@@ -1149,84 +1176,90 @@
         <v>2000</v>
       </c>
       <c r="J17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,13 +1278,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,13 +1912,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2300</v>
       </c>
       <c r="N41" s="3">
         <v>2300</v>
       </c>
       <c r="O41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2349,60 +2448,63 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1800</v>
       </c>
       <c r="G46" s="3">
         <v>1800</v>
@@ -2411,37 +2513,40 @@
         <v>1800</v>
       </c>
       <c r="I46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2532,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2790,16 +2913,19 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>1800</v>
@@ -2811,37 +2937,40 @@
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2889,28 +3020,28 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -2919,7 +3050,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -2930,16 +3061,19 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>91</v>
@@ -2956,8 +3090,8 @@
       <c r="J58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1000</v>
       </c>
       <c r="F60" s="3">
         <v>1000</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1000</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-142900</v>
       </c>
       <c r="F72" s="3">
         <v>-142900</v>
       </c>
       <c r="G72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="H72" s="3">
         <v>-142800</v>
       </c>
       <c r="I72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-142400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-141700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-141200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-140400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
@@ -3809,7 +3995,7 @@
         <v>700</v>
       </c>
       <c r="E76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F76" s="3">
         <v>800</v>
@@ -3821,37 +4007,40 @@
         <v>800</v>
       </c>
       <c r="I76" s="3">
+        <v>800</v>
+      </c>
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1200</v>
       </c>
       <c r="M76" s="3">
         <v>1200</v>
       </c>
       <c r="N76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4815,17 +5058,20 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4833,11 +5079,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
         <v>-400</v>
       </c>
       <c r="F102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,103 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1900</v>
       </c>
       <c r="G8" s="3">
         <v>1900</v>
@@ -763,51 +770,57 @@
         <v>1900</v>
       </c>
       <c r="I8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2800</v>
       </c>
       <c r="S8" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
         <v>900</v>
       </c>
       <c r="F9" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="G9" s="3">
         <v>900</v>
@@ -819,45 +832,51 @@
         <v>900</v>
       </c>
       <c r="J9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L9" s="3">
         <v>800</v>
       </c>
       <c r="M9" s="3">
+        <v>700</v>
+      </c>
+      <c r="N9" s="3">
+        <v>800</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>1000</v>
       </c>
       <c r="Q9" s="3">
+        <v>900</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="3">
         <v>1000</v>
@@ -869,40 +888,46 @@
         <v>1000</v>
       </c>
       <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1700</v>
       </c>
       <c r="O10" s="3">
         <v>1400</v>
       </c>
       <c r="P10" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q10" s="3">
         <v>1400</v>
       </c>
       <c r="R10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,19 +961,19 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -955,10 +982,10 @@
         <v>400</v>
       </c>
       <c r="M12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
@@ -967,16 +994,22 @@
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>500</v>
+      </c>
+      <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,25 +1203,27 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1900</v>
       </c>
       <c r="G17" s="3">
         <v>2000</v>
       </c>
       <c r="H17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I17" s="3">
         <v>2000</v>
@@ -1179,87 +1232,99 @@
         <v>2000</v>
       </c>
       <c r="K17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3000</v>
       </c>
       <c r="Q17" s="3">
         <v>2700</v>
       </c>
       <c r="R17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-100</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,20 +1344,22 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1399,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,16 +1517,22 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1456,43 +1541,49 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,16 +1694,22 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1615,51 +1718,57 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1668,43 +1777,49 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,20 +2048,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1968,16 +2107,22 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1986,43 +2131,49 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,16 +2225,22 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2092,101 +2249,113 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>900</v>
       </c>
       <c r="J41" s="3">
         <v>1200</v>
       </c>
       <c r="K41" s="3">
+        <v>900</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2333,61 +2512,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2451,7 +2648,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2460,13 +2657,13 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2481,72 +2678,84 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1800</v>
       </c>
       <c r="I46" s="3">
         <v>1800</v>
       </c>
       <c r="J46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2598,8 +2807,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2643,16 +2858,22 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,22 +3161,28 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
         <v>3600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
@@ -2940,37 +3191,43 @@
         <v>1800</v>
       </c>
       <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3023,13 +3284,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3047,16 +3308,16 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3064,22 +3325,28 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>91</v>
@@ -3093,11 +3360,11 @@
       <c r="K58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,114 +3384,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-142900</v>
+        <v>-142500</v>
       </c>
       <c r="E72" s="3">
-        <v>-143000</v>
+        <v>-142800</v>
       </c>
       <c r="F72" s="3">
         <v>-142900</v>
       </c>
       <c r="G72" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-142900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-142800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-142800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-142400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-142500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-142300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-141900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-141800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-141700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-141200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-140800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-140400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,22 +4351,28 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>900</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>800</v>
       </c>
       <c r="H76" s="3">
         <v>800</v>
@@ -4010,7 +4381,7 @@
         <v>800</v>
       </c>
       <c r="J76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K76" s="3">
         <v>800</v>
@@ -4019,28 +4390,34 @@
         <v>900</v>
       </c>
       <c r="M76" s="3">
+        <v>800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>900</v>
+      </c>
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,74 +4469,86 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4168,43 +4557,49 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,23 +5055,25 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5061,35 +5546,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,110 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1900</v>
       </c>
       <c r="H8" s="3">
         <v>1900</v>
@@ -776,40 +780,43 @@
         <v>1900</v>
       </c>
       <c r="K8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,13 +824,13 @@
         <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
@@ -838,48 +845,51 @@
         <v>900</v>
       </c>
       <c r="L9" s="3">
+        <v>900</v>
+      </c>
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1000</v>
       </c>
       <c r="P9" s="3">
         <v>1000</v>
       </c>
       <c r="Q9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R9" s="3">
         <v>900</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1000</v>
       </c>
       <c r="S9" s="3">
         <v>1000</v>
       </c>
       <c r="T9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
       </c>
       <c r="G10" s="3">
         <v>1000</v>
@@ -894,40 +904,43 @@
         <v>1000</v>
       </c>
       <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>900</v>
       </c>
       <c r="N10" s="3">
         <v>900</v>
       </c>
       <c r="O10" s="3">
+        <v>900</v>
+      </c>
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,7 +981,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
@@ -976,7 +990,7 @@
         <v>300</v>
       </c>
       <c r="K12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
@@ -988,7 +1002,7 @@
         <v>400</v>
       </c>
       <c r="O12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
@@ -1000,16 +1014,19 @@
         <v>500</v>
       </c>
       <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
-      </c>
-      <c r="T12" s="3">
-        <v>700</v>
       </c>
       <c r="U12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,28 +1231,29 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2000</v>
       </c>
       <c r="G17" s="3">
         <v>2000</v>
       </c>
       <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2000</v>
       </c>
       <c r="J17" s="3">
         <v>2000</v>
@@ -1238,93 +1265,99 @@
         <v>2000</v>
       </c>
       <c r="M17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1358,11 +1392,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2066,11 +2136,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2300</v>
       </c>
       <c r="Q41" s="3">
         <v>2300</v>
       </c>
       <c r="R41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2636,13 +2732,16 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2654,69 +2753,72 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1800</v>
       </c>
       <c r="J46" s="3">
         <v>1800</v>
@@ -2725,37 +2827,40 @@
         <v>1800</v>
       </c>
       <c r="L46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2864,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,25 +3290,28 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1800</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
@@ -3197,37 +3323,40 @@
         <v>1800</v>
       </c>
       <c r="L54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3290,28 +3421,28 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3320,7 +3451,7 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3331,25 +3462,28 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>91</v>
@@ -3366,8 +3500,8 @@
       <c r="M58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
       </c>
       <c r="K59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1000</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-143000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-142900</v>
       </c>
       <c r="I72" s="3">
         <v>-142900</v>
       </c>
       <c r="J72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="K72" s="3">
         <v>-142800</v>
       </c>
       <c r="L72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-142400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-141900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-141800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-141700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-141200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-140800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-140400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,25 +4540,28 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>700</v>
       </c>
       <c r="G76" s="3">
         <v>700</v>
       </c>
       <c r="H76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I76" s="3">
         <v>800</v>
@@ -4387,37 +4573,40 @@
         <v>800</v>
       </c>
       <c r="L76" s="3">
+        <v>800</v>
+      </c>
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1200</v>
       </c>
       <c r="P76" s="3">
         <v>1200</v>
       </c>
       <c r="Q76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
         <v>300</v>
       </c>
       <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5068,14 +5289,14 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>91</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5552,26 +5795,29 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5579,11 +5825,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-400</v>
       </c>
       <c r="H102" s="3">
         <v>-400</v>
       </c>
       <c r="I102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,124 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E8" s="3">
         <v>2500</v>
       </c>
       <c r="F8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1900</v>
       </c>
       <c r="J8" s="3">
         <v>1900</v>
@@ -783,40 +791,46 @@
         <v>1900</v>
       </c>
       <c r="L8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2800</v>
       </c>
       <c r="V8" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,19 +838,19 @@
         <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
-        <v>900</v>
-      </c>
       <c r="G9" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H9" s="3">
         <v>900</v>
       </c>
       <c r="I9" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="J9" s="3">
         <v>900</v>
@@ -848,54 +862,60 @@
         <v>900</v>
       </c>
       <c r="M9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="O9" s="3">
         <v>800</v>
       </c>
       <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>800</v>
+      </c>
+      <c r="R9" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>900</v>
       </c>
       <c r="S9" s="3">
         <v>1000</v>
       </c>
       <c r="T9" s="3">
+        <v>900</v>
+      </c>
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1000</v>
       </c>
       <c r="I10" s="3">
         <v>1000</v>
@@ -907,40 +927,46 @@
         <v>1000</v>
       </c>
       <c r="L10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1700</v>
       </c>
       <c r="R10" s="3">
         <v>1400</v>
       </c>
       <c r="S10" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T10" s="3">
         <v>1400</v>
       </c>
       <c r="U10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W10" s="3">
         <v>1700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,19 +1012,19 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
@@ -1005,10 +1033,10 @@
         <v>400</v>
       </c>
       <c r="P12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>500</v>
@@ -1017,16 +1045,22 @@
         <v>500</v>
       </c>
       <c r="T12" s="3">
+        <v>500</v>
+      </c>
+      <c r="U12" s="3">
+        <v>500</v>
+      </c>
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,34 +1284,36 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1900</v>
       </c>
       <c r="J17" s="3">
         <v>2000</v>
       </c>
       <c r="K17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L17" s="3">
         <v>2000</v>
@@ -1268,96 +1322,108 @@
         <v>2000</v>
       </c>
       <c r="N17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3000</v>
       </c>
       <c r="T17" s="3">
         <v>2700</v>
       </c>
       <c r="U17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>200</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1395,14 +1463,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1510,82 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,25 +1646,31 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1593,43 +1679,49 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,25 +1850,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1779,60 +1883,66 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>300</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1841,43 +1951,49 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2139,14 +2279,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2186,25 +2326,31 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>300</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2213,43 +2359,49 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,25 +2462,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>300</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2337,110 +2495,122 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>1200</v>
       </c>
       <c r="N41" s="3">
+        <v>900</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2611,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>500</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2735,19 +2927,25 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2756,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2765,13 +2963,13 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2786,81 +2984,93 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1800</v>
       </c>
       <c r="L46" s="3">
         <v>1800</v>
       </c>
       <c r="M46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2975,16 +3191,22 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,31 +3539,37 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1800</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
@@ -3326,37 +3578,43 @@
         <v>1800</v>
       </c>
       <c r="M54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,13 +3663,15 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3424,13 +3686,13 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3448,16 +3710,16 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3474,22 +3742,22 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>900</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>91</v>
@@ -3503,11 +3771,11 @@
       <c r="N58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3527,132 +3795,150 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-142400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-142500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-142800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-142900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-143000</v>
       </c>
       <c r="I72" s="3">
         <v>-142900</v>
       </c>
       <c r="J72" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-142900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-142800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-142800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-142400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-142500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-142300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-141900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-141800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-141700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-141200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-140800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-140400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,31 +4909,37 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>800</v>
       </c>
       <c r="K76" s="3">
         <v>800</v>
@@ -4576,7 +4948,7 @@
         <v>800</v>
       </c>
       <c r="M76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N76" s="3">
         <v>800</v>
@@ -4585,28 +4957,34 @@
         <v>900</v>
       </c>
       <c r="P76" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>900</v>
+      </c>
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,92 +5045,104 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>300</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4761,43 +5151,49 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5292,18 +5734,18 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,44 +6284,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,22 +773,22 @@
         <v>2700</v>
       </c>
       <c r="E8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1900</v>
       </c>
       <c r="K8" s="3">
         <v>1900</v>
@@ -797,63 +800,66 @@
         <v>1900</v>
       </c>
       <c r="N8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1200</v>
       </c>
       <c r="G9" s="3">
         <v>1200</v>
       </c>
       <c r="H9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>900</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
@@ -868,57 +874,60 @@
         <v>900</v>
       </c>
       <c r="O9" s="3">
+        <v>900</v>
+      </c>
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1000</v>
       </c>
       <c r="S9" s="3">
         <v>1000</v>
       </c>
       <c r="T9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="3">
         <v>900</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1000</v>
       </c>
       <c r="V9" s="3">
         <v>1000</v>
       </c>
       <c r="W9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1000</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
@@ -933,40 +942,43 @@
         <v>1000</v>
       </c>
       <c r="N10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>900</v>
       </c>
       <c r="Q10" s="3">
         <v>900</v>
       </c>
       <c r="R10" s="3">
+        <v>900</v>
+      </c>
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
@@ -1027,7 +1040,7 @@
         <v>300</v>
       </c>
       <c r="N12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -1039,7 +1052,7 @@
         <v>400</v>
       </c>
       <c r="R12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>500</v>
@@ -1051,16 +1064,19 @@
         <v>500</v>
       </c>
       <c r="V12" s="3">
+        <v>500</v>
+      </c>
+      <c r="W12" s="3">
         <v>600</v>
-      </c>
-      <c r="W12" s="3">
-        <v>700</v>
       </c>
       <c r="X12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,37 +1311,38 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>2400</v>
       </c>
       <c r="F17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2000</v>
       </c>
       <c r="J17" s="3">
         <v>2000</v>
       </c>
       <c r="K17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="3">
         <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2000</v>
       </c>
       <c r="M17" s="3">
         <v>2000</v>
@@ -1328,102 +1354,108 @@
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1469,11 +1502,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2285,11 +2354,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2300</v>
       </c>
       <c r="T41" s="3">
         <v>2300</v>
       </c>
       <c r="U41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V41" s="3">
         <v>1800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2797,76 +2886,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2200</v>
       </c>
       <c r="F43" s="3">
         <v>2200</v>
       </c>
       <c r="G43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>500</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2933,22 +3028,25 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2960,78 +3058,81 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>5800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1800</v>
       </c>
       <c r="M46" s="3">
         <v>1800</v>
@@ -3040,37 +3141,40 @@
         <v>1800</v>
       </c>
       <c r="O46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3197,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,34 +3667,37 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="E54" s="3">
         <v>5800</v>
       </c>
       <c r="F54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1800</v>
       </c>
       <c r="L54" s="3">
         <v>1800</v>
@@ -3584,37 +3709,40 @@
         <v>1800</v>
       </c>
       <c r="O54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3674,7 +3804,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3692,28 +3822,28 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3722,7 +3852,7 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -3733,13 +3863,16 @@
       <c r="X57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -3748,19 +3881,19 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>91</v>
@@ -3777,8 +3910,8 @@
       <c r="P58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3801,144 +3934,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
       </c>
       <c r="N59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-143000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-142900</v>
       </c>
       <c r="L72" s="3">
         <v>-142900</v>
       </c>
       <c r="M72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="N72" s="3">
         <v>-142800</v>
       </c>
       <c r="O72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="P72" s="3">
         <v>-142400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-142500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-142300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-141900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-141800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-141700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-141200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-140800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-140400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4915,34 +5097,37 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>700</v>
       </c>
       <c r="J76" s="3">
         <v>700</v>
       </c>
       <c r="K76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L76" s="3">
         <v>800</v>
@@ -4954,37 +5139,40 @@
         <v>800</v>
       </c>
       <c r="O76" s="3">
+        <v>800</v>
+      </c>
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1200</v>
       </c>
       <c r="S76" s="3">
         <v>1200</v>
       </c>
       <c r="T76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U76" s="3">
         <v>1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>300</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5740,14 +5960,14 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>91</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6290,35 +6532,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6326,11 +6571,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-400</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>
       </c>
       <c r="L102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,28 +781,28 @@
         <v>2700</v>
       </c>
       <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
-        <v>2500</v>
-      </c>
       <c r="G8" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
       </c>
       <c r="I8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1900</v>
       </c>
       <c r="M8" s="3">
         <v>1900</v>
@@ -803,69 +811,75 @@
         <v>1900</v>
       </c>
       <c r="O8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>2800</v>
       </c>
       <c r="Y8" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
         <v>1200</v>
       </c>
       <c r="F9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1200</v>
       </c>
       <c r="H9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
-        <v>900</v>
-      </c>
       <c r="J9" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="3">
         <v>900</v>
       </c>
       <c r="L9" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M9" s="3">
         <v>900</v>
@@ -877,63 +891,69 @@
         <v>900</v>
       </c>
       <c r="P9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>800</v>
       </c>
       <c r="S9" s="3">
+        <v>700</v>
+      </c>
+      <c r="T9" s="3">
+        <v>800</v>
+      </c>
+      <c r="U9" s="3">
         <v>1000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>900</v>
       </c>
       <c r="V9" s="3">
         <v>1000</v>
       </c>
       <c r="W9" s="3">
+        <v>900</v>
+      </c>
+      <c r="X9" s="3">
         <v>1000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1000</v>
       </c>
       <c r="L10" s="3">
         <v>1000</v>
@@ -945,40 +965,46 @@
         <v>1000</v>
       </c>
       <c r="O10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1700</v>
       </c>
       <c r="U10" s="3">
         <v>1400</v>
       </c>
       <c r="V10" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="W10" s="3">
         <v>1400</v>
       </c>
       <c r="X10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1034,19 +1062,19 @@
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
@@ -1055,10 +1083,10 @@
         <v>400</v>
       </c>
       <c r="S12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U12" s="3">
         <v>500</v>
@@ -1067,16 +1095,22 @@
         <v>500</v>
       </c>
       <c r="W12" s="3">
+        <v>500</v>
+      </c>
+      <c r="X12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,19 +1180,25 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>-1000</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
+      <c r="F14" s="3">
+        <v>-1000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1172,11 +1212,11 @@
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,43 +1364,45 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1900</v>
       </c>
       <c r="M17" s="3">
         <v>2000</v>
       </c>
       <c r="N17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
@@ -1357,105 +1411,117 @@
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>3000</v>
       </c>
       <c r="W17" s="3">
         <v>2700</v>
       </c>
       <c r="X17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
       <c r="R18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1505,14 +1573,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1552,79 +1620,91 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,34 +1774,40 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1730,43 +1816,49 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,34 +2005,40 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>300</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1943,69 +2047,75 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>300</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -2014,43 +2124,49 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2357,14 +2497,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2404,34 +2544,40 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>300</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2440,43 +2586,49 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,34 +2698,40 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>300</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2582,119 +2740,131 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>1200</v>
       </c>
       <c r="Q41" s="3">
+        <v>900</v>
+      </c>
+      <c r="R41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2889,79 +3069,91 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>500</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3040,19 +3238,19 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3061,7 +3259,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3070,13 +3268,13 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3091,90 +3289,102 @@
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1800</v>
       </c>
       <c r="O46" s="3">
         <v>1800</v>
       </c>
       <c r="P46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3307,16 +3523,22 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,40 +3916,46 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1800</v>
       </c>
       <c r="N54" s="3">
         <v>1800</v>
@@ -3712,37 +3964,43 @@
         <v>1800</v>
       </c>
       <c r="P54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,22 +4055,24 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3825,13 +4087,13 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3849,16 +4111,16 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -3866,40 +4128,46 @@
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1000</v>
+      <c r="D58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
       </c>
       <c r="H58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>91</v>
@@ -3913,11 +4181,11 @@
       <c r="Q58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3937,150 +4205,168 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
       </c>
       <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1100</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-140700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-142000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-142200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-142400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-142500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-142800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-142900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-143000</v>
       </c>
       <c r="L72" s="3">
         <v>-142900</v>
       </c>
       <c r="M72" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="N72" s="3">
         <v>-142900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-142800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-142400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-142500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-142300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-141900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-141800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-141700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-141200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-140800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-140400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5100,40 +5466,46 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>800</v>
       </c>
       <c r="N76" s="3">
         <v>800</v>
@@ -5142,7 +5514,7 @@
         <v>800</v>
       </c>
       <c r="P76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q76" s="3">
         <v>800</v>
@@ -5151,28 +5523,34 @@
         <v>900</v>
       </c>
       <c r="S76" s="3">
+        <v>800</v>
+      </c>
+      <c r="T76" s="3">
+        <v>900</v>
+      </c>
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5242,110 +5620,122 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>300</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -5354,43 +5744,49 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5963,18 +6405,18 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6535,53 +7021,59 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,157 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="F8" s="3">
         <v>2700</v>
       </c>
       <c r="G8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
-        <v>2500</v>
-      </c>
       <c r="I8" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="J8" s="3">
         <v>2500</v>
       </c>
       <c r="K8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1900</v>
       </c>
       <c r="O8" s="3">
         <v>1900</v>
@@ -817,75 +824,81 @@
         <v>1900</v>
       </c>
       <c r="Q8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>2800</v>
       </c>
       <c r="AA8" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1200</v>
       </c>
       <c r="H9" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I9" s="3">
         <v>1200</v>
       </c>
       <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
-        <v>900</v>
-      </c>
       <c r="L9" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M9" s="3">
         <v>900</v>
       </c>
       <c r="N9" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="O9" s="3">
         <v>900</v>
@@ -897,69 +910,75 @@
         <v>900</v>
       </c>
       <c r="R9" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S9" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T9" s="3">
         <v>800</v>
       </c>
       <c r="U9" s="3">
+        <v>700</v>
+      </c>
+      <c r="V9" s="3">
+        <v>800</v>
+      </c>
+      <c r="W9" s="3">
         <v>1000</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W9" s="3">
-        <v>900</v>
       </c>
       <c r="X9" s="3">
         <v>1000</v>
       </c>
       <c r="Y9" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB9" s="3">
         <v>1100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
       </c>
       <c r="N10" s="3">
         <v>1000</v>
@@ -971,40 +990,46 @@
         <v>1000</v>
       </c>
       <c r="Q10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1700</v>
       </c>
       <c r="W10" s="3">
         <v>1400</v>
       </c>
       <c r="X10" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Y10" s="3">
         <v>1400</v>
       </c>
       <c r="Z10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,16 +1057,18 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -1068,19 +1095,19 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
       <c r="Q12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
@@ -1089,10 +1116,10 @@
         <v>400</v>
       </c>
       <c r="U12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>500</v>
@@ -1101,16 +1128,22 @@
         <v>500</v>
       </c>
       <c r="Y12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,25 +1219,31 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>-1000</v>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
+      <c r="H14" s="3">
+        <v>-1000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
@@ -1218,11 +1257,11 @@
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,49 +1417,51 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1900</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q17" s="3">
         <v>2000</v>
@@ -1417,111 +1470,123 @@
         <v>2000</v>
       </c>
       <c r="S17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3000</v>
       </c>
       <c r="Y17" s="3">
         <v>2700</v>
       </c>
       <c r="Z17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AB17" s="3">
         <v>2900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
       <c r="T18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,14 +1646,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1693,97 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,40 +1859,46 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1822,48 +1907,54 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,40 +2108,46 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -2053,75 +2156,81 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -2130,43 +2239,49 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2503,14 +2642,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2550,40 +2689,46 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2592,43 +2737,49 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,40 +2855,46 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2746,125 +2903,137 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>900</v>
       </c>
       <c r="R41" s="3">
         <v>1200</v>
       </c>
       <c r="S41" s="3">
+        <v>900</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,85 +3254,97 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>500</v>
       </c>
       <c r="T43" s="3">
         <v>400</v>
       </c>
       <c r="U43" s="3">
+        <v>500</v>
+      </c>
+      <c r="V43" s="3">
+        <v>400</v>
+      </c>
+      <c r="W43" s="3">
         <v>2100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3238,25 +3435,25 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3265,7 +3462,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3274,13 +3471,13 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3295,96 +3492,108 @@
         <v>200</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="E46" s="3">
         <v>6000</v>
       </c>
       <c r="F46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H46" s="3">
         <v>5500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1800</v>
       </c>
       <c r="Q46" s="3">
         <v>1800</v>
       </c>
       <c r="R46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>3700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3529,16 +3744,22 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,46 +4167,52 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="E54" s="3">
         <v>6000</v>
       </c>
       <c r="F54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1800</v>
       </c>
       <c r="P54" s="3">
         <v>1800</v>
@@ -3970,37 +4221,43 @@
         <v>1800</v>
       </c>
       <c r="R54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,28 +4316,30 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4093,13 +4354,13 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -4117,16 +4378,16 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
@@ -4134,8 +4395,14 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4145,35 +4412,35 @@
       <c r="E58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
+      <c r="F58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
       </c>
       <c r="J58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>900</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>91</v>
@@ -4187,11 +4454,11 @@
       <c r="S58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4211,162 +4478,180 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-140400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-140600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-140700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-142000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-142200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-142400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-142500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-142800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-142900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-143000</v>
       </c>
       <c r="N72" s="3">
         <v>-142900</v>
       </c>
       <c r="O72" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-142900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-142800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-142800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-142400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-142500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-142300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-141900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-141800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-141700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-141200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-140800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-140400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,46 +5837,52 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="3">
         <v>3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>800</v>
       </c>
       <c r="P76" s="3">
         <v>800</v>
@@ -5520,7 +5891,7 @@
         <v>800</v>
       </c>
       <c r="R76" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S76" s="3">
         <v>800</v>
@@ -5529,28 +5900,34 @@
         <v>900</v>
       </c>
       <c r="U76" s="3">
+        <v>800</v>
+      </c>
+      <c r="V76" s="3">
+        <v>900</v>
+      </c>
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,122 +6003,134 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -5750,43 +6139,49 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -6411,18 +6852,18 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -7038,48 +7529,48 @@
       <c r="E100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7595,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,164 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2700</v>
       </c>
       <c r="I8" s="3">
         <v>2700</v>
       </c>
       <c r="J8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1900</v>
       </c>
       <c r="P8" s="3">
         <v>1900</v>
@@ -830,78 +834,81 @@
         <v>1900</v>
       </c>
       <c r="S8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
       </c>
       <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1200</v>
       </c>
       <c r="L9" s="3">
         <v>1200</v>
       </c>
       <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>900</v>
@@ -916,72 +923,75 @@
         <v>900</v>
       </c>
       <c r="T9" s="3">
+        <v>900</v>
+      </c>
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1000</v>
       </c>
       <c r="X9" s="3">
         <v>1000</v>
       </c>
       <c r="Y9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>900</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1000</v>
       </c>
       <c r="AA9" s="3">
         <v>1000</v>
       </c>
       <c r="AB9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC9" s="3">
         <v>1100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1400</v>
       </c>
       <c r="F10" s="3">
         <v>1400</v>
       </c>
       <c r="G10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H10" s="3">
         <v>1300</v>
       </c>
       <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1000</v>
       </c>
       <c r="O10" s="3">
         <v>1000</v>
@@ -996,40 +1006,43 @@
         <v>1000</v>
       </c>
       <c r="S10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
-      </c>
-      <c r="U10" s="3">
-        <v>900</v>
       </c>
       <c r="V10" s="3">
         <v>900</v>
       </c>
       <c r="W10" s="3">
+        <v>900</v>
+      </c>
+      <c r="X10" s="3">
         <v>1400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1085,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1101,7 +1115,7 @@
         <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
@@ -1110,7 +1124,7 @@
         <v>300</v>
       </c>
       <c r="S12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T12" s="3">
         <v>400</v>
@@ -1122,7 +1136,7 @@
         <v>400</v>
       </c>
       <c r="W12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X12" s="3">
         <v>500</v>
@@ -1134,16 +1148,19 @@
         <v>500</v>
       </c>
       <c r="AA12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB12" s="3">
         <v>600</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>700</v>
       </c>
       <c r="AC12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,16 +1242,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -1242,11 +1262,11 @@
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
@@ -1263,8 +1283,8 @@
       <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1428,43 +1455,43 @@
         <v>2600</v>
       </c>
       <c r="E17" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F17" s="3">
         <v>2500</v>
       </c>
       <c r="G17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2400</v>
       </c>
       <c r="J17" s="3">
         <v>2400</v>
       </c>
       <c r="K17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2000</v>
       </c>
       <c r="R17" s="3">
         <v>2000</v>
@@ -1476,117 +1503,123 @@
         <v>2000</v>
       </c>
       <c r="U17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,11 +1686,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1699,91 +1733,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1865,100 +1905,106 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2648,11 +2718,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2695,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3500</v>
       </c>
       <c r="F41" s="3">
         <v>3500</v>
       </c>
       <c r="G41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
-      </c>
-      <c r="X41" s="3">
-        <v>2300</v>
       </c>
       <c r="Y41" s="3">
         <v>2300</v>
       </c>
       <c r="Z41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3260,91 +3350,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2200</v>
       </c>
       <c r="K43" s="3">
         <v>2200</v>
       </c>
       <c r="L43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>500</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3426,13 +3522,16 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -3441,22 +3540,22 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3468,93 +3567,96 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
       <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1800</v>
       </c>
       <c r="R46" s="3">
         <v>1800</v>
@@ -3563,37 +3665,40 @@
         <v>1800</v>
       </c>
       <c r="T46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3750,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="3">
         <v>100</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4173,49 +4296,52 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>5800</v>
       </c>
       <c r="J54" s="3">
         <v>5800</v>
       </c>
       <c r="K54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1800</v>
       </c>
       <c r="Q54" s="3">
         <v>1800</v>
@@ -4227,37 +4353,40 @@
         <v>1800</v>
       </c>
       <c r="T54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -4327,22 +4458,22 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4360,28 +4491,28 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -4390,7 +4521,7 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
         <v>300</v>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4418,11 +4552,11 @@
       <c r="G58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -4431,19 +4565,19 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>91</v>
@@ -4460,8 +4594,8 @@
       <c r="U58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4484,174 +4618,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E59" s="3">
         <v>2200</v>
       </c>
       <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>900</v>
       </c>
       <c r="R59" s="3">
         <v>900</v>
       </c>
       <c r="S59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
+        <v>800</v>
+      </c>
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1000</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
       </c>
       <c r="R66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-140200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-143000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-142900</v>
       </c>
       <c r="Q72" s="3">
         <v>-142900</v>
       </c>
       <c r="R72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="S72" s="3">
         <v>-142800</v>
       </c>
       <c r="T72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="U72" s="3">
         <v>-142400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-142500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-142300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-141900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-141800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-141700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-141200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-140800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-140400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5843,49 +6026,52 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>700</v>
       </c>
       <c r="O76" s="3">
         <v>700</v>
       </c>
       <c r="P76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q76" s="3">
         <v>800</v>
@@ -5897,37 +6083,40 @@
         <v>800</v>
       </c>
       <c r="T76" s="3">
+        <v>800</v>
+      </c>
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1200</v>
       </c>
       <c r="X76" s="3">
         <v>1200</v>
       </c>
       <c r="Y76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
       </c>
       <c r="M89" s="3">
         <v>300</v>
       </c>
       <c r="N89" s="3">
+        <v>300</v>
+      </c>
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -6858,14 +7079,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>91</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -7535,33 +7781,33 @@
       <c r="G100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7569,11 +7815,11 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-400</v>
       </c>
       <c r="P102" s="3">
         <v>-400</v>
       </c>
       <c r="Q102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,171 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2700</v>
       </c>
       <c r="J8" s="3">
         <v>2700</v>
       </c>
       <c r="K8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1900</v>
       </c>
       <c r="Q8" s="3">
         <v>1900</v>
@@ -837,81 +841,84 @@
         <v>1900</v>
       </c>
       <c r="T8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1400</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
       </c>
       <c r="G9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1200</v>
       </c>
       <c r="M9" s="3">
         <v>1200</v>
       </c>
       <c r="N9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>900</v>
       </c>
       <c r="Q9" s="3">
         <v>900</v>
@@ -926,75 +933,78 @@
         <v>900</v>
       </c>
       <c r="U9" s="3">
+        <v>900</v>
+      </c>
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1000</v>
       </c>
       <c r="Y9" s="3">
         <v>1000</v>
       </c>
       <c r="Z9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA9" s="3">
         <v>900</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1000</v>
       </c>
       <c r="AB9" s="3">
         <v>1000</v>
       </c>
       <c r="AC9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD9" s="3">
         <v>1100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1400</v>
       </c>
       <c r="G10" s="3">
         <v>1400</v>
       </c>
       <c r="H10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I10" s="3">
         <v>1300</v>
       </c>
       <c r="J10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1000</v>
       </c>
       <c r="P10" s="3">
         <v>1000</v>
@@ -1009,40 +1019,43 @@
         <v>1000</v>
       </c>
       <c r="T10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>900</v>
       </c>
       <c r="W10" s="3">
         <v>900</v>
       </c>
       <c r="X10" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1102,7 @@
         <v>300</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -1118,7 +1132,7 @@
         <v>200</v>
       </c>
       <c r="Q12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
@@ -1127,7 +1141,7 @@
         <v>300</v>
       </c>
       <c r="T12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U12" s="3">
         <v>400</v>
@@ -1139,7 +1153,7 @@
         <v>400</v>
       </c>
       <c r="X12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y12" s="3">
         <v>500</v>
@@ -1151,16 +1165,19 @@
         <v>500</v>
       </c>
       <c r="AB12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC12" s="3">
         <v>600</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>700</v>
       </c>
       <c r="AD12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,19 +1262,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1265,11 +1285,11 @@
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
@@ -1286,8 +1306,8 @@
       <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,55 +1472,56 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="E17" s="3">
         <v>2600</v>
       </c>
       <c r="F17" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G17" s="3">
         <v>2500</v>
       </c>
       <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2400</v>
       </c>
       <c r="K17" s="3">
         <v>2400</v>
       </c>
       <c r="L17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2000</v>
       </c>
       <c r="P17" s="3">
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
         <v>1900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2000</v>
       </c>
       <c r="S17" s="3">
         <v>2000</v>
@@ -1506,120 +1533,126 @@
         <v>2000</v>
       </c>
       <c r="V17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>200</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1689,11 +1723,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1736,94 +1770,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-100</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1908,106 +1948,112 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2721,11 +2791,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>3500</v>
       </c>
       <c r="G41" s="3">
         <v>3500</v>
       </c>
       <c r="H41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>2300</v>
       </c>
       <c r="Z41" s="3">
         <v>2300</v>
       </c>
       <c r="AA41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2200</v>
       </c>
       <c r="L43" s="3">
         <v>2200</v>
       </c>
       <c r="M43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>500</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
       </c>
       <c r="T43" s="3">
+        <v>500</v>
+      </c>
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3525,16 +3621,19 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -3543,22 +3642,22 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3570,96 +3669,99 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
       <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1800</v>
       </c>
       <c r="S46" s="3">
         <v>1800</v>
@@ -3668,37 +3770,40 @@
         <v>1800</v>
       </c>
       <c r="U46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3861,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="3">
         <v>100</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -4308,43 +4434,43 @@
         <v>7400</v>
       </c>
       <c r="E54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5800</v>
       </c>
       <c r="K54" s="3">
         <v>5800</v>
       </c>
       <c r="L54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1800</v>
       </c>
       <c r="R54" s="3">
         <v>1800</v>
@@ -4356,37 +4482,40 @@
         <v>1800</v>
       </c>
       <c r="U54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4449,34 +4579,35 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4494,28 +4625,28 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4524,7 +4655,7 @@
         <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4555,11 +4689,11 @@
       <c r="H58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
@@ -4568,19 +4702,19 @@
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>91</v>
@@ -4597,8 +4731,8 @@
       <c r="V58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4621,180 +4755,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2200</v>
       </c>
       <c r="F59" s="3">
         <v>2200</v>
       </c>
       <c r="G59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>900</v>
       </c>
       <c r="S59" s="3">
         <v>900</v>
       </c>
       <c r="T59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
       </c>
       <c r="V59" s="3">
+        <v>800</v>
+      </c>
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>1000</v>
       </c>
       <c r="S60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1000</v>
       </c>
       <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-139700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-140200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-140700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-142900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-143000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-142900</v>
       </c>
       <c r="R72" s="3">
         <v>-142900</v>
       </c>
       <c r="S72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="T72" s="3">
         <v>-142800</v>
       </c>
       <c r="U72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="V72" s="3">
         <v>-142400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-142500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-142300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-141900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-141800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-141700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-141200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-140800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-140400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6029,52 +6212,55 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>700</v>
       </c>
       <c r="P76" s="3">
         <v>700</v>
       </c>
       <c r="Q76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R76" s="3">
         <v>800</v>
@@ -6086,37 +6272,40 @@
         <v>800</v>
       </c>
       <c r="U76" s="3">
+        <v>800</v>
+      </c>
+      <c r="V76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1200</v>
       </c>
       <c r="Y76" s="3">
         <v>1200</v>
       </c>
       <c r="Z76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA76" s="3">
         <v>1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
@@ -6935,85 +7152,88 @@
         <v>600</v>
       </c>
       <c r="E89" s="3">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>300</v>
       </c>
       <c r="N89" s="3">
         <v>300</v>
       </c>
       <c r="O89" s="3">
+        <v>300</v>
+      </c>
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -7082,14 +7303,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>91</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -7784,33 +8030,33 @@
       <c r="H100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7818,11 +8064,11 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
@@ -7945,81 +8197,84 @@
         <v>600</v>
       </c>
       <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-400</v>
       </c>
       <c r="Q102" s="3">
         <v>-400</v>
       </c>
       <c r="R102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVWD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>LVWD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,174 +665,178 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2700</v>
       </c>
       <c r="K8" s="3">
         <v>2700</v>
       </c>
       <c r="L8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1900</v>
       </c>
       <c r="R8" s="3">
         <v>1900</v>
@@ -844,40 +848,43 @@
         <v>1900</v>
       </c>
       <c r="U8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,43 +892,43 @@
         <v>1500</v>
       </c>
       <c r="E9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1400</v>
       </c>
       <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1200</v>
       </c>
       <c r="N9" s="3">
         <v>1200</v>
       </c>
       <c r="O9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>900</v>
@@ -936,78 +943,81 @@
         <v>900</v>
       </c>
       <c r="V9" s="3">
+        <v>900</v>
+      </c>
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>800</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1000</v>
       </c>
       <c r="Z9" s="3">
         <v>1000</v>
       </c>
       <c r="AA9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB9" s="3">
         <v>900</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1000</v>
       </c>
       <c r="AC9" s="3">
         <v>1000</v>
       </c>
       <c r="AD9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE9" s="3">
         <v>1100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1400</v>
       </c>
       <c r="H10" s="3">
         <v>1400</v>
       </c>
       <c r="I10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
       </c>
       <c r="K10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1000</v>
       </c>
       <c r="Q10" s="3">
         <v>1000</v>
@@ -1022,40 +1032,43 @@
         <v>1000</v>
       </c>
       <c r="U10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
-      </c>
-      <c r="W10" s="3">
-        <v>900</v>
       </c>
       <c r="X10" s="3">
         <v>900</v>
       </c>
       <c r="Y10" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1119,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
@@ -1135,7 +1149,7 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
@@ -1144,7 +1158,7 @@
         <v>300</v>
       </c>
       <c r="U12" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V12" s="3">
         <v>400</v>
@@ -1156,7 +1170,7 @@
         <v>400</v>
       </c>
       <c r="Y12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z12" s="3">
         <v>500</v>
@@ -1168,16 +1182,19 @@
         <v>500</v>
       </c>
       <c r="AC12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD12" s="3">
         <v>600</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>700</v>
       </c>
       <c r="AE12" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1276,11 +1296,11 @@
       <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>91</v>
@@ -1288,11 +1308,11 @@
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
@@ -1309,8 +1329,8 @@
       <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,58 +1499,59 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2600</v>
       </c>
       <c r="F17" s="3">
         <v>2600</v>
       </c>
       <c r="G17" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H17" s="3">
         <v>2500</v>
       </c>
       <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2400</v>
       </c>
       <c r="L17" s="3">
         <v>2400</v>
       </c>
       <c r="M17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2000</v>
       </c>
       <c r="Q17" s="3">
         <v>2000</v>
       </c>
       <c r="R17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S17" s="3">
         <v>1900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2000</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
@@ -1536,123 +1563,129 @@
         <v>2000</v>
       </c>
       <c r="W17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1726,11 +1760,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2049,14 +2095,14 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2794,11 +2864,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -3277,88 +3364,91 @@
         <v>5000</v>
       </c>
       <c r="E41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3500</v>
       </c>
       <c r="H41" s="3">
         <v>3500</v>
       </c>
       <c r="I41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>2300</v>
       </c>
       <c r="AA41" s="3">
         <v>2300</v>
       </c>
       <c r="AB41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AC41" s="3">
         <v>1800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3446,97 +3536,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2200</v>
       </c>
       <c r="M43" s="3">
         <v>2200</v>
       </c>
       <c r="N43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>500</v>
       </c>
       <c r="T43" s="3">
         <v>500</v>
       </c>
       <c r="U43" s="3">
+        <v>500</v>
+      </c>
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3633,10 +3732,10 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -3645,22 +3744,22 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3672,99 +3771,102 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>200</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
       <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1800</v>
       </c>
       <c r="T46" s="3">
         <v>1800</v>
@@ -3773,37 +3875,40 @@
         <v>1800</v>
       </c>
       <c r="V46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -3972,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="3">
         <v>100</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4425,55 +4548,58 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="E54" s="3">
         <v>7400</v>
       </c>
       <c r="F54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>5800</v>
       </c>
       <c r="L54" s="3">
         <v>5800</v>
       </c>
       <c r="M54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1800</v>
       </c>
       <c r="S54" s="3">
         <v>1800</v>
@@ -4485,37 +4611,40 @@
         <v>1800</v>
       </c>
       <c r="V54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4580,37 +4710,38 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4628,28 +4759,28 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4658,7 +4789,7 @@
         <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>300</v>
@@ -4669,34 +4800,37 @@
       <c r="AE57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>91</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -4705,19 +4839,19 @@
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>91</v>
@@ -4734,8 +4868,8 @@
       <c r="W58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4758,186 +4892,195 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2200</v>
       </c>
       <c r="G59" s="3">
         <v>2200</v>
       </c>
       <c r="H59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>900</v>
       </c>
       <c r="T59" s="3">
         <v>900</v>
       </c>
       <c r="U59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V59" s="3">
         <v>800</v>
       </c>
       <c r="W59" s="3">
+        <v>800</v>
+      </c>
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>1000</v>
       </c>
       <c r="T60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
       </c>
       <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-139300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-139500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-140600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-140700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-142800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-142900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-143000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-142900</v>
       </c>
       <c r="S72" s="3">
         <v>-142900</v>
       </c>
       <c r="T72" s="3">
-        <v>-142800</v>
+        <v>-142900</v>
       </c>
       <c r="U72" s="3">
         <v>-142800</v>
       </c>
       <c r="V72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="W72" s="3">
         <v>-142400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-142500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-142300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-141900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-141800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-141700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-141200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-140800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-140400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-140300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6215,55 +6398,58 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>700</v>
       </c>
       <c r="Q76" s="3">
         <v>700</v>
       </c>
       <c r="R76" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S76" s="3">
         <v>800</v>
@@ -6275,37 +6461,40 @@
         <v>800</v>
       </c>
       <c r="V76" s="3">
+        <v>800</v>
+      </c>
+      <c r="W76" s="3">
         <v>900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>1200</v>
       </c>
       <c r="Z76" s="3">
         <v>1200</v>
       </c>
       <c r="AA76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>1300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>600</v>
       </c>
       <c r="F89" s="3">
+        <v>600</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>300</v>
       </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -7306,14 +7527,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>91</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -8033,33 +8279,33 @@
       <c r="I100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
       </c>
       <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -8067,11 +8313,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>600</v>
       </c>
       <c r="F102" s="3">
+        <v>600</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-400</v>
       </c>
       <c r="R102" s="3">
         <v>-400</v>
       </c>
       <c r="S102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-400</v>
       </c>
     </row>
